--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -268,32 +268,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,7 +602,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -665,7 +647,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -736,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,7 +734,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -772,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -787,12 +769,12 @@
         <v>10000</v>
       </c>
       <c r="F2" s="13">
-        <v>1581.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1576.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>685.07</v>
+        <v>687.81</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -804,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>685.07</v>
+        <v>687.81</v>
       </c>
       <c r="F3" s="6">
-        <v>193.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -830,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -849,29 +831,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -881,10 +840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -903,57 +862,57 @@
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -964,9 +923,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="20">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5">
         <v>10000</v>
@@ -984,10 +941,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="20">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1000,17 +954,15 @@
         <v>42036</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="G3" s="13">
-        <v>9214.2000000000007</v>
+        <v>9211.51</v>
       </c>
       <c r="H3" s="6">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -1019,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -1030,11 +982,8 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="20">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1048,17 +997,15 @@
         <v>42064</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>795.67</v>
+        <v>788.49</v>
       </c>
       <c r="G4" s="13">
-        <v>8418.5300000000007</v>
+        <v>8423.02</v>
       </c>
       <c r="H4" s="6">
-        <v>92.05</v>
+        <v>100</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1067,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1078,11 +1025,8 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="20">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1096,17 +1040,15 @@
         <v>42095</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="G5" s="13">
-        <v>7632.73</v>
+        <v>7634.53</v>
       </c>
       <c r="H5" s="6">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1115,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1126,11 +1068,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="20">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1144,17 +1083,15 @@
         <v>42125</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.44</v>
+        <v>812.14</v>
       </c>
       <c r="G6" s="13">
-        <v>6820.29</v>
+        <v>6822.39</v>
       </c>
       <c r="H6" s="6">
-        <v>75.28</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1163,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1174,11 +1111,8 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1192,17 +1126,15 @@
         <v>42156</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>818.21</v>
+        <v>820.27</v>
       </c>
       <c r="G7" s="13">
-        <v>6002.08</v>
+        <v>6002.12</v>
       </c>
       <c r="H7" s="6">
-        <v>69.510000000000005</v>
+        <v>68.22</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1211,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1222,11 +1154,8 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1240,17 +1169,15 @@
         <v>42186</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.52</v>
+        <v>828.47</v>
       </c>
       <c r="G8" s="13">
-        <v>5173.5600000000004</v>
+        <v>5173.6499999999996</v>
       </c>
       <c r="H8" s="6">
-        <v>59.2</v>
+        <v>60.02</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1259,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1270,11 +1197,8 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
       <c r="P8" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1288,17 +1212,15 @@
         <v>42217</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>834.99</v>
+        <v>836.75</v>
       </c>
       <c r="G9" s="13">
-        <v>4338.57</v>
+        <v>4336.8999999999996</v>
       </c>
       <c r="H9" s="6">
-        <v>52.73</v>
+        <v>51.74</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1307,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1318,11 +1240,8 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
       <c r="P9" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1336,17 +1255,15 @@
         <v>42248</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>843.5</v>
+        <v>845.12</v>
       </c>
       <c r="G10" s="13">
-        <v>3495.07</v>
+        <v>3491.78</v>
       </c>
       <c r="H10" s="6">
-        <v>44.22</v>
+        <v>43.37</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1355,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1366,11 +1283,8 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
       <c r="P10" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1384,17 +1298,15 @@
         <v>42278</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.25</v>
+        <v>853.57</v>
       </c>
       <c r="G11" s="13">
-        <v>2641.82</v>
+        <v>2638.21</v>
       </c>
       <c r="H11" s="6">
-        <v>34.47</v>
+        <v>34.92</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1403,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1414,11 +1326,8 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="20">
-        <v>0</v>
-      </c>
       <c r="P11" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1432,17 +1341,15 @@
         <v>42309</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>860.8</v>
+        <v>862.11</v>
       </c>
       <c r="G12" s="13">
-        <v>1781.02</v>
+        <v>1776.1</v>
       </c>
       <c r="H12" s="6">
-        <v>26.92</v>
+        <v>26.38</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1451,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1462,11 +1369,8 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
       <c r="P12" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1480,17 +1384,15 @@
         <v>42339</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.15</v>
+        <v>870.73</v>
       </c>
       <c r="G13" s="6">
-        <v>910.87</v>
+        <v>905.37</v>
       </c>
       <c r="H13" s="6">
-        <v>17.57</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1499,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1510,11 +1412,8 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="20">
-        <v>0</v>
-      </c>
       <c r="P13" s="6">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1528,17 +1427,15 @@
         <v>42370</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>910.87</v>
+        <v>905.37</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.2799999999999994</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1547,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>920.15</v>
+        <v>914.42</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1558,42 +1455,11 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="20">
-        <v>0</v>
-      </c>
       <c r="P14" s="6">
-        <v>920.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="16"/>
+        <v>914.42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C30:E30"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -769,12 +769,12 @@
         <v>10000</v>
       </c>
       <c r="F2" s="13">
-        <v>1576.98</v>
+        <v>1581.47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>687.81</v>
+        <v>685.07</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>687.81</v>
+        <v>685.07</v>
       </c>
       <c r="F3" s="6">
-        <v>200</v>
+        <v>193.97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,13 +956,13 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>788.49</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="13">
-        <v>9211.51</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="6">
-        <v>100</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -999,13 +999,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>788.49</v>
+        <v>795.67</v>
       </c>
       <c r="G4" s="13">
-        <v>8423.02</v>
+        <v>8418.5300000000007</v>
       </c>
       <c r="H4" s="6">
-        <v>100</v>
+        <v>92.05</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1042,13 +1042,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>788.49</v>
+        <v>785.8</v>
       </c>
       <c r="G5" s="13">
-        <v>7634.53</v>
+        <v>7632.73</v>
       </c>
       <c r="H5" s="6">
-        <v>100</v>
+        <v>101.92</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1085,13 +1085,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.14</v>
+        <v>812.44</v>
       </c>
       <c r="G6" s="13">
-        <v>6822.39</v>
+        <v>6820.29</v>
       </c>
       <c r="H6" s="6">
-        <v>76.349999999999994</v>
+        <v>75.28</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1128,13 +1128,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>820.27</v>
+        <v>818.21</v>
       </c>
       <c r="G7" s="13">
-        <v>6002.12</v>
+        <v>6002.08</v>
       </c>
       <c r="H7" s="6">
-        <v>68.22</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1171,13 +1171,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.47</v>
+        <v>828.52</v>
       </c>
       <c r="G8" s="13">
-        <v>5173.6499999999996</v>
+        <v>5173.5600000000004</v>
       </c>
       <c r="H8" s="6">
-        <v>60.02</v>
+        <v>59.2</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1214,13 +1214,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>836.75</v>
+        <v>834.99</v>
       </c>
       <c r="G9" s="13">
-        <v>4336.8999999999996</v>
+        <v>4338.57</v>
       </c>
       <c r="H9" s="6">
-        <v>51.74</v>
+        <v>52.73</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1257,13 +1257,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>845.12</v>
+        <v>843.5</v>
       </c>
       <c r="G10" s="13">
-        <v>3491.78</v>
+        <v>3495.07</v>
       </c>
       <c r="H10" s="6">
-        <v>43.37</v>
+        <v>44.22</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.57</v>
+        <v>853.25</v>
       </c>
       <c r="G11" s="13">
-        <v>2638.21</v>
+        <v>2641.82</v>
       </c>
       <c r="H11" s="6">
-        <v>34.92</v>
+        <v>34.47</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1343,13 +1343,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>862.11</v>
+        <v>860.8</v>
       </c>
       <c r="G12" s="13">
-        <v>1776.1</v>
+        <v>1781.02</v>
       </c>
       <c r="H12" s="6">
-        <v>26.38</v>
+        <v>26.92</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1386,13 +1386,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.73</v>
+        <v>870.15</v>
       </c>
       <c r="G13" s="6">
-        <v>905.37</v>
+        <v>910.87</v>
       </c>
       <c r="H13" s="6">
-        <v>17.760000000000002</v>
+        <v>17.57</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1429,13 +1429,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>905.37</v>
+        <v>910.87</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.0500000000000007</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>914.42</v>
+        <v>920.15</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>914.42</v>
+        <v>920.15</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>disburse</t>
   </si>
   <si>
+    <t>heading</t>
+  </si>
+  <si>
     <t>maximumallowedaoutstandingbalance</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -88,68 +85,44 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Waived</t>
-  </si>
-  <si>
-    <t>Written Off</t>
-  </si>
-  <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
-    <t>Over Due</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Principal Due</t>
-  </si>
-  <si>
-    <t>Balance of Loan</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>In Advance</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
+    <t>773RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,21 +137,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,20 +163,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -224,24 +172,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -250,44 +192,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,13 +228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -348,13 +268,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -388,13 +308,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -428,13 +348,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +388,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -508,13 +428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -548,13 +468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -874,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -898,13 +818,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -919,19 +839,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,7 +863,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -952,7 +872,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -960,15 +880,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -976,18 +896,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1011,741 +947,823 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>10000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>1581.47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>685.07</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>685.07</v>
-      </c>
-      <c r="F3" s="13">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>710.36</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>710.36</v>
+      </c>
+      <c r="F3" s="11">
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>785.8</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>785.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>795.67</v>
+      </c>
+      <c r="G4" s="12">
+        <v>8418.5300000000007</v>
+      </c>
+      <c r="H4" s="11">
+        <v>193.97</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>989.64</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>989.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>785.8</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7632.73</v>
+      </c>
+      <c r="H5" s="11">
+        <v>101.92</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C6" s="9">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>789.09</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6843.64</v>
+      </c>
+      <c r="H6" s="11">
+        <v>98.63</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16">
-        <v>0</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="C7" s="9">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>817.97</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6025.67</v>
+      </c>
+      <c r="H7" s="11">
+        <v>69.75</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>828.29</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5197.38</v>
+      </c>
+      <c r="H8" s="11">
+        <v>59.43</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
         <v>31</v>
       </c>
-      <c r="C3" s="18">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16">
-        <v>785.8</v>
-      </c>
-      <c r="G3" s="20">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="H3" s="16">
-        <v>101.92</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="C9" s="9">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>834.75</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4362.63</v>
+      </c>
+      <c r="H9" s="11">
+        <v>52.97</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
         <v>887.72</v>
       </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" s="18">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
-        <v>795.67</v>
-      </c>
-      <c r="G4" s="20">
-        <v>8418.5300000000007</v>
-      </c>
-      <c r="H4" s="16">
-        <v>92.05</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>843.26</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3519.37</v>
+      </c>
+      <c r="H10" s="11">
+        <v>44.46</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
         <v>887.72</v>
       </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>853.01</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2666.36</v>
+      </c>
+      <c r="H11" s="11">
+        <v>34.71</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
         <v>31</v>
       </c>
-      <c r="C5" s="18">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16">
-        <v>785.8</v>
-      </c>
-      <c r="G5" s="20">
-        <v>7632.73</v>
-      </c>
-      <c r="H5" s="16">
-        <v>101.92</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="C12" s="9">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>860.55</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1805.81</v>
+      </c>
+      <c r="H12" s="11">
+        <v>27.17</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
         <v>887.72</v>
       </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
         <v>30</v>
       </c>
-      <c r="C6" s="18">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16">
-        <v>812.44</v>
-      </c>
-      <c r="G6" s="20">
-        <v>6820.29</v>
-      </c>
-      <c r="H6" s="16">
-        <v>75.28</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="C13" s="9">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>869.91</v>
+      </c>
+      <c r="G13" s="11">
+        <v>935.9</v>
+      </c>
+      <c r="H13" s="11">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <v>887.72</v>
       </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
         <v>31</v>
       </c>
-      <c r="C7" s="18">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16">
-        <v>818.21</v>
-      </c>
-      <c r="G7" s="20">
-        <v>6002.08</v>
-      </c>
-      <c r="H7" s="16">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16">
-        <v>30</v>
-      </c>
-      <c r="C8" s="18">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
-        <v>828.52</v>
-      </c>
-      <c r="G8" s="20">
-        <v>5173.5600000000004</v>
-      </c>
-      <c r="H8" s="16">
-        <v>59.2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>31</v>
-      </c>
-      <c r="C9" s="18">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
-        <v>834.99</v>
-      </c>
-      <c r="G9" s="20">
-        <v>4338.57</v>
-      </c>
-      <c r="H9" s="16">
-        <v>52.73</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16">
-        <v>843.5</v>
-      </c>
-      <c r="G10" s="20">
-        <v>3495.07</v>
-      </c>
-      <c r="H10" s="16">
-        <v>44.22</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
-        <v>853.25</v>
-      </c>
-      <c r="G11" s="20">
-        <v>2641.82</v>
-      </c>
-      <c r="H11" s="16">
-        <v>34.47</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16">
-        <v>31</v>
-      </c>
-      <c r="C12" s="18">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
-        <v>860.8</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1781.02</v>
-      </c>
-      <c r="H12" s="16">
-        <v>26.92</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16">
-        <v>30</v>
-      </c>
-      <c r="C13" s="18">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16">
-        <v>870.15</v>
-      </c>
-      <c r="G13" s="16">
-        <v>910.87</v>
-      </c>
-      <c r="H13" s="16">
-        <v>17.57</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16">
-        <v>31</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16">
-        <v>910.87</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>920.15</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <v>920.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>935.9</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>945.44</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>945.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,10 +1796,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1793,7 +1811,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -1802,10 +1820,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1817,7 +1835,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -1826,10 +1844,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1841,7 +1859,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -1853,12 +1871,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1878,7 +1896,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -1887,7 +1905,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1895,15 +1913,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1911,10 +1929,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1926,7 +1944,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">

--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -166,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -287,6 +292,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -334,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,9 +375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -840,10 +882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,12 +903,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
@@ -906,17 +949,18 @@
       <c r="M1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -942,8 +986,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -979,14 +1024,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1022,14 +1068,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1065,14 +1112,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1108,14 +1156,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1151,14 +1200,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1194,14 +1244,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1237,14 +1288,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1280,14 +1332,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1323,14 +1376,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1366,14 +1420,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1409,14 +1464,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1452,10 +1508,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>920.15</v>
       </c>
     </row>
@@ -1468,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
